--- a/biology/Médecine/Alexandre_Mérieux/Alexandre_Mérieux.xlsx
+++ b/biology/Médecine/Alexandre_Mérieux/Alexandre_Mérieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_M%C3%A9rieux</t>
+          <t>Alexandre_Mérieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Mérieux, né le 15 janvier 1974 à Lyon, est le président-directeur général du groupe BioMérieux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre_M%C3%A9rieux</t>
+          <t>Alexandre_Mérieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et formation
-Alexandre Mérieux est le troisième fils d'Alain Mérieux, et le dernier survivant depuis 2006, après la disparition prématurée de ses deux frères, Rodolphe et Christophe[1].
-Marié depuis 2003, il a trois enfants[2].
-Il suit trois ans d'études à HEC Montréal[2].
-Carrière professionnelle
-Alexandre Mérieux passe ensuite deux ans à Chicago dans l'entité du groupe Mérieux qui réalise des analyses alimentaires, Silliker, où il s'occupe de marketing[1]. Il rentre à Paris en 2001 et s'occupe d'aspects industriels dans le groupe et dirige les analyses agroalimentaires[3].
-Il entre au comité de direction de BioMérieux en 2005. De 2005 à 2011 il s'occupe des aspects industriels, du contrôle microbiologique, de la cosmétique et de la pharmacie. À cette époque, il lance Mérieux Développement, structure dotée de 70 millions d'euros sur cinq ans, pour investir dans des start-ups[4]. Il dirige l'unité microbiologique de la société de 2011 à 2014[2].
-À partir de 2014, il est l'adjoint de son père et du président-directeur général, Jean-Luc Bélingard. Il s'occupe de l'acquisition de l'américain BioFire en 2014[2]. Il est nommé président-directeur général du groupe en décembre 2017.
+          <t>Famille et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Mérieux est le troisième fils d'Alain Mérieux, et le dernier survivant depuis 2006, après la disparition prématurée de ses deux frères, Rodolphe et Christophe.
+Marié depuis 2003, il a trois enfants.
+Il suit trois ans d'études à HEC Montréal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alexandre_Mérieux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexandre_M%C3%A9rieux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Mérieux passe ensuite deux ans à Chicago dans l'entité du groupe Mérieux qui réalise des analyses alimentaires, Silliker, où il s'occupe de marketing. Il rentre à Paris en 2001 et s'occupe d'aspects industriels dans le groupe et dirige les analyses agroalimentaires.
+Il entre au comité de direction de BioMérieux en 2005. De 2005 à 2011 il s'occupe des aspects industriels, du contrôle microbiologique, de la cosmétique et de la pharmacie. À cette époque, il lance Mérieux Développement, structure dotée de 70 millions d'euros sur cinq ans, pour investir dans des start-ups. Il dirige l'unité microbiologique de la société de 2011 à 2014.
+À partir de 2014, il est l'adjoint de son père et du président-directeur général, Jean-Luc Bélingard. Il s'occupe de l'acquisition de l'américain BioFire en 2014. Il est nommé président-directeur général du groupe en décembre 2017.
 </t>
         </is>
       </c>
